--- a/project/data/Turkey.xlsx
+++ b/project/data/Turkey.xlsx
@@ -505,7 +505,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -519,6 +522,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="162"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -553,10 +563,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -569,9 +580,15 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Virgül" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -873,16 +890,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="5"/>
-    <col min="3" max="3" width="11.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" style="7" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="9.140625" style="3"/>
-    <col min="9" max="9" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -892,7 +909,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="6" t="s">
         <v>159</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -915,8 +932,8 @@
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="5">
-        <v>1404556</v>
+      <c r="C2" s="7">
+        <v>14045.56</v>
       </c>
       <c r="D2">
         <v>1854270</v>
@@ -930,6 +947,7 @@
       <c r="G2" s="3">
         <v>35.3252861</v>
       </c>
+      <c r="I2" s="8"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
@@ -938,8 +956,8 @@
       <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="5">
-        <v>760616</v>
+      <c r="C3" s="7">
+        <v>7606.16</v>
       </c>
       <c r="D3">
         <v>623811</v>
@@ -953,6 +971,7 @@
       <c r="G3" s="3">
         <v>38.314110100000001</v>
       </c>
+      <c r="I3" s="8"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
@@ -961,8 +980,8 @@
       <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="5">
-        <v>1471863</v>
+      <c r="C4" s="7">
+        <v>14718.630000000001</v>
       </c>
       <c r="D4">
         <v>812416</v>
@@ -976,7 +995,7 @@
       <c r="G4" s="3">
         <v>30.642741099999999</v>
       </c>
-      <c r="I4" s="3"/>
+      <c r="I4" s="8"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
@@ -985,8 +1004,8 @@
       <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="5">
-        <v>1149867</v>
+      <c r="C5" s="7">
+        <v>11498.67</v>
       </c>
       <c r="D5">
         <v>528744</v>
@@ -1000,6 +1019,7 @@
       <c r="G5" s="3">
         <v>43.168437098021577</v>
       </c>
+      <c r="I5" s="8"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
@@ -1008,8 +1028,8 @@
       <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="5">
-        <v>570378</v>
+      <c r="C6" s="7">
+        <v>5703.78</v>
       </c>
       <c r="D6">
         <v>365231</v>
@@ -1023,6 +1043,7 @@
       <c r="G6" s="3">
         <v>35.832914799999998</v>
       </c>
+      <c r="I6" s="8"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
@@ -1031,8 +1052,8 @@
       <c r="B7" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="5">
-        <v>2540194</v>
+      <c r="C7" s="7">
+        <v>25401.940000000002</v>
       </c>
       <c r="D7">
         <v>4007860</v>
@@ -1046,6 +1067,7 @@
       <c r="G7" s="3">
         <v>32.854048200000001</v>
       </c>
+      <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
@@ -1054,8 +1076,8 @@
       <c r="B8" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="5">
-        <v>2079056</v>
+      <c r="C8" s="7">
+        <v>20790.560000000001</v>
       </c>
       <c r="D8">
         <v>1719751</v>
@@ -1069,6 +1091,7 @@
       <c r="G8" s="3">
         <v>30.707454899999998</v>
       </c>
+      <c r="I8" s="8"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
@@ -1077,8 +1100,8 @@
       <c r="B9" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="5">
-        <v>736710</v>
+      <c r="C9" s="7">
+        <v>7367.1</v>
       </c>
       <c r="D9">
         <v>191934</v>
@@ -1092,6 +1115,7 @@
       <c r="G9" s="3">
         <v>41.839862699999998</v>
       </c>
+      <c r="I9" s="8"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
@@ -1100,8 +1124,8 @@
       <c r="B10" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="5">
-        <v>790443</v>
+      <c r="C10" s="7">
+        <v>7904.43</v>
       </c>
       <c r="D10">
         <v>950757</v>
@@ -1115,6 +1139,7 @@
       <c r="G10" s="3">
         <v>27.843587800000002</v>
       </c>
+      <c r="I10" s="8"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
@@ -1123,8 +1148,8 @@
       <c r="B11" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="5">
-        <v>1447273</v>
+      <c r="C11" s="7">
+        <v>14472.73</v>
       </c>
       <c r="D11">
         <v>1076347</v>
@@ -1138,6 +1163,7 @@
       <c r="G11" s="3">
         <v>28.0228793</v>
       </c>
+      <c r="I11" s="8"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
@@ -1146,8 +1172,8 @@
       <c r="B12" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="5">
-        <v>430677</v>
+      <c r="C12" s="7">
+        <v>4306.7700000000004</v>
       </c>
       <c r="D12">
         <v>194326</v>
@@ -1161,6 +1187,7 @@
       <c r="G12" s="3">
         <v>29.9752911</v>
       </c>
+      <c r="I12" s="8"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
@@ -1169,8 +1196,8 @@
       <c r="B13" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="5">
-        <v>825351</v>
+      <c r="C13" s="7">
+        <v>8253.51</v>
       </c>
       <c r="D13">
         <v>253739</v>
@@ -1184,6 +1211,7 @@
       <c r="G13" s="3">
         <v>40.729618100000003</v>
       </c>
+      <c r="I13" s="8"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
@@ -1192,8 +1220,8 @@
       <c r="B14" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="5">
-        <v>709450</v>
+      <c r="C14" s="7">
+        <v>7094.5</v>
       </c>
       <c r="D14">
         <v>388678</v>
@@ -1207,6 +1235,7 @@
       <c r="G14" s="3">
         <v>42.167837200000001</v>
       </c>
+      <c r="I14" s="8"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
@@ -1215,8 +1244,8 @@
       <c r="B15" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="5">
-        <v>832339</v>
+      <c r="C15" s="7">
+        <v>8323.39</v>
       </c>
       <c r="D15">
         <v>270654</v>
@@ -1230,6 +1259,7 @@
       <c r="G15" s="3">
         <v>31.646025900000001</v>
       </c>
+      <c r="I15" s="8"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
@@ -1238,8 +1268,8 @@
       <c r="B16" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="5">
-        <v>713495</v>
+      <c r="C16" s="7">
+        <v>7134.95</v>
       </c>
       <c r="D16">
         <v>256803</v>
@@ -1253,16 +1283,17 @@
       <c r="G16" s="3">
         <v>30.169125399999999</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I16" s="8"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B17" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="5">
-        <v>1088638</v>
+      <c r="C17" s="7">
+        <v>10886.380000000001</v>
       </c>
       <c r="D17">
         <v>2125140</v>
@@ -1276,16 +1307,17 @@
       <c r="G17" s="3">
         <v>29.0675481</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I17" s="8"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>29</v>
       </c>
       <c r="B18" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="5">
-        <v>995043</v>
+      <c r="C18" s="7">
+        <v>9950.43</v>
       </c>
       <c r="D18">
         <v>464975</v>
@@ -1299,16 +1331,17 @@
       <c r="G18" s="3">
         <v>26.927829200000001</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I18" s="8"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>31</v>
       </c>
       <c r="B19" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="5">
-        <v>749189</v>
+      <c r="C19" s="7">
+        <v>7491.89</v>
       </c>
       <c r="D19">
         <v>270355</v>
@@ -1322,16 +1355,17 @@
       <c r="G19" s="3">
         <v>33.452606899999999</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I19" s="8"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>33</v>
       </c>
       <c r="B20" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="5">
-        <v>1279621</v>
+      <c r="C20" s="7">
+        <v>12796.210000000001</v>
       </c>
       <c r="D20">
         <v>597065</v>
@@ -1345,16 +1379,17 @@
       <c r="G20" s="3">
         <v>34.726929200000001</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I20" s="8"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>35</v>
       </c>
       <c r="B21" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="5">
-        <v>1180419</v>
+      <c r="C21" s="7">
+        <v>11804.19</v>
       </c>
       <c r="D21">
         <v>950757</v>
@@ -1368,16 +1403,17 @@
       <c r="G21" s="3">
         <v>29.084483200000001</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I21" s="8"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>37</v>
       </c>
       <c r="B22" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="5">
-        <v>1520401</v>
+      <c r="C22" s="7">
+        <v>15204.01</v>
       </c>
       <c r="D22">
         <v>1362708</v>
@@ -1391,16 +1427,17 @@
       <c r="G22" s="3">
         <v>40.236354200000001</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I22" s="8"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>39</v>
       </c>
       <c r="B23" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="5">
-        <v>609791</v>
+      <c r="C23" s="7">
+        <v>6097.91</v>
       </c>
       <c r="D23">
         <v>402606</v>
@@ -1414,16 +1451,17 @@
       <c r="G23" s="3">
         <v>26.558722499999998</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I23" s="8"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>41</v>
       </c>
       <c r="B24" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="5">
-        <v>928145</v>
+      <c r="C24" s="7">
+        <v>9281.4500000000007</v>
       </c>
       <c r="D24">
         <v>569616</v>
@@ -1437,16 +1475,17 @@
       <c r="G24" s="3">
         <v>39.222713499999998</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I24" s="8"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>43</v>
       </c>
       <c r="B25" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="5">
-        <v>1172755</v>
+      <c r="C25" s="7">
+        <v>11727.550000000001</v>
       </c>
       <c r="D25">
         <v>316841</v>
@@ -1460,16 +1499,17 @@
       <c r="G25" s="3">
         <v>39.491030000000002</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I25" s="8"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>45</v>
       </c>
       <c r="B26" t="s">
         <v>46</v>
       </c>
-      <c r="C26" s="5">
-        <v>2533090</v>
+      <c r="C26" s="7">
+        <v>25330.9</v>
       </c>
       <c r="D26">
         <v>937389</v>
@@ -1483,16 +1523,17 @@
       <c r="G26" s="3">
         <v>41.272771499999998</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I26" s="8"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B27" t="s">
         <v>48</v>
       </c>
-      <c r="C27" s="5">
-        <v>1390203</v>
+      <c r="C27" s="7">
+        <v>13902.03</v>
       </c>
       <c r="D27">
         <v>706009</v>
@@ -1506,16 +1547,17 @@
       <c r="G27" s="3">
         <v>31.072347600000001</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I27" s="8"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>49</v>
       </c>
       <c r="B28" t="s">
         <v>50</v>
       </c>
-      <c r="C28" s="5">
-        <v>684484</v>
+      <c r="C28" s="7">
+        <v>6844.84</v>
       </c>
       <c r="D28">
         <v>1285249</v>
@@ -1529,16 +1571,17 @@
       <c r="G28" s="3">
         <v>37.379261700000001</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I28" s="8"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>51</v>
       </c>
       <c r="B29" t="s">
         <v>52</v>
       </c>
-      <c r="C29" s="5">
-        <v>683158</v>
+      <c r="C29" s="7">
+        <v>6831.58</v>
       </c>
       <c r="D29">
         <v>523819</v>
@@ -1552,16 +1595,17 @@
       <c r="G29" s="3">
         <v>38.517203199999997</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I29" s="8"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>53</v>
       </c>
       <c r="B30" t="s">
         <v>54</v>
       </c>
-      <c r="C30" s="5">
-        <v>643701</v>
+      <c r="C30" s="7">
+        <v>6437.01</v>
       </c>
       <c r="D30">
         <v>186953</v>
@@ -1575,16 +1619,17 @@
       <c r="G30" s="3">
         <v>39.309437000000003</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I30" s="8"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>55</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
-      <c r="C31" s="5">
-        <v>717888</v>
+      <c r="C31" s="7">
+        <v>7178.88</v>
       </c>
       <c r="D31">
         <v>236581</v>
@@ -1598,16 +1643,17 @@
       <c r="G31" s="3">
         <v>44.105477700000002</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I31" s="8"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>57</v>
       </c>
       <c r="B32" t="s">
         <v>58</v>
       </c>
-      <c r="C32" s="5">
-        <v>583136</v>
+      <c r="C32" s="7">
+        <v>5831.36</v>
       </c>
       <c r="D32">
         <v>1253726</v>
@@ -1621,16 +1667,17 @@
       <c r="G32" s="3">
         <v>36.160276099999997</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I32" s="8"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>59</v>
       </c>
       <c r="B33" t="s">
         <v>60</v>
       </c>
-      <c r="C33" s="5">
-        <v>887108</v>
+      <c r="C33" s="7">
+        <v>8871.08</v>
       </c>
       <c r="D33">
         <v>513681</v>
@@ -1644,16 +1691,17 @@
       <c r="G33" s="3">
         <v>30.960209299999999</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I33" s="8"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>61</v>
       </c>
       <c r="B34" t="s">
         <v>62</v>
       </c>
-      <c r="C34" s="5">
-        <v>1551225</v>
+      <c r="C34" s="7">
+        <v>15512.25</v>
       </c>
       <c r="D34">
         <v>1651400</v>
@@ -1667,16 +1715,17 @@
       <c r="G34" s="3">
         <v>34.629839099999998</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I34" s="8"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>63</v>
       </c>
       <c r="B35" t="s">
         <v>64</v>
       </c>
-      <c r="C35" s="5">
-        <v>531533</v>
+      <c r="C35" s="7">
+        <v>5315.33</v>
       </c>
       <c r="D35">
         <v>10018735</v>
@@ -1690,16 +1739,17 @@
       <c r="G35" s="3">
         <v>28.966218699999999</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I35" s="8"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>65</v>
       </c>
       <c r="B36" t="s">
         <v>66</v>
       </c>
-      <c r="C36" s="5">
-        <v>1201561</v>
+      <c r="C36" s="7">
+        <v>12015.61</v>
       </c>
       <c r="D36">
         <v>3370866</v>
@@ -1713,16 +1763,17 @@
       <c r="G36" s="3">
         <v>27.1310699</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I36" s="8"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>67</v>
       </c>
       <c r="B37" t="s">
         <v>68</v>
       </c>
-      <c r="C37" s="5">
-        <v>1013909</v>
+      <c r="C37" s="7">
+        <v>10139.09</v>
       </c>
       <c r="D37">
         <v>325016</v>
@@ -1736,16 +1787,17 @@
       <c r="G37" s="3">
         <v>42.997953099999997</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I37" s="8"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>69</v>
       </c>
       <c r="B38" t="s">
         <v>70</v>
       </c>
-      <c r="C38" s="5">
-        <v>1315798</v>
+      <c r="C38" s="7">
+        <v>13157.98</v>
       </c>
       <c r="D38">
         <v>375476</v>
@@ -1759,16 +1811,17 @@
       <c r="G38" s="3">
         <v>33.761917699999998</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I38" s="8"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>71</v>
       </c>
       <c r="B39" t="s">
         <v>72</v>
       </c>
-      <c r="C39" s="5">
-        <v>1710933</v>
+      <c r="C39" s="7">
+        <v>17109.330000000002</v>
       </c>
       <c r="D39">
         <v>1060432</v>
@@ -1782,16 +1835,17 @@
       <c r="G39" s="3">
         <v>35.554637399999997</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I39" s="8"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>73</v>
       </c>
       <c r="B40" t="s">
         <v>74</v>
       </c>
-      <c r="C40" s="5">
-        <v>629978</v>
+      <c r="C40" s="7">
+        <v>6299.78</v>
       </c>
       <c r="D40">
         <v>328461</v>
@@ -1805,16 +1859,17 @@
       <c r="G40" s="3">
         <v>27.6051334</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I40" s="8"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>75</v>
       </c>
       <c r="B41" t="s">
         <v>76</v>
       </c>
-      <c r="C41" s="5">
-        <v>653032</v>
+      <c r="C41" s="7">
+        <v>6530.32</v>
       </c>
       <c r="D41">
         <v>253239</v>
@@ -1828,16 +1883,17 @@
       <c r="G41" s="3">
         <v>34.160558700000003</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I41" s="8"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>77</v>
       </c>
       <c r="B42" t="s">
         <v>78</v>
       </c>
-      <c r="C42" s="5">
-        <v>362529</v>
+      <c r="C42" s="7">
+        <v>3625.29</v>
       </c>
       <c r="D42">
         <v>1206085</v>
@@ -1851,16 +1907,17 @@
       <c r="G42" s="3">
         <v>29.926264400000001</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I42" s="8"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>79</v>
       </c>
       <c r="B43" t="s">
         <v>80</v>
       </c>
-      <c r="C43" s="5">
-        <v>4081352</v>
+      <c r="C43" s="7">
+        <v>40813.520000000004</v>
       </c>
       <c r="D43">
         <v>2192166</v>
@@ -1874,16 +1931,17 @@
       <c r="G43" s="3">
         <v>32.492437600000002</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I43" s="8"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>81</v>
       </c>
       <c r="B44" t="s">
         <v>82</v>
       </c>
-      <c r="C44" s="5">
-        <v>1201357</v>
+      <c r="C44" s="7">
+        <v>12013.57</v>
       </c>
       <c r="D44">
         <v>656903</v>
@@ -1897,16 +1955,17 @@
       <c r="G44" s="3">
         <v>29.4937732</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I44" s="8"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>83</v>
       </c>
       <c r="B45" t="s">
         <v>84</v>
       </c>
-      <c r="C45" s="5">
-        <v>1210270</v>
+      <c r="C45" s="7">
+        <v>12102.7</v>
       </c>
       <c r="D45">
         <v>853658</v>
@@ -1920,16 +1979,17 @@
       <c r="G45" s="3">
         <v>38.318946599999997</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I45" s="8"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>85</v>
       </c>
       <c r="B46" t="s">
         <v>86</v>
       </c>
-      <c r="C46" s="5">
-        <v>1322850</v>
+      <c r="C46" s="7">
+        <v>13228.5</v>
       </c>
       <c r="D46">
         <v>1260169</v>
@@ -1943,16 +2003,17 @@
       <c r="G46" s="3">
         <v>27.433396900000002</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I46" s="8"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>87</v>
       </c>
       <c r="B47" t="s">
         <v>88</v>
       </c>
-      <c r="C47" s="5">
-        <v>1445674</v>
+      <c r="C47" s="7">
+        <v>14456.74</v>
       </c>
       <c r="D47">
         <v>1002384</v>
@@ -1966,16 +2027,17 @@
       <c r="G47" s="3">
         <v>36.830655</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I47" s="8"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>89</v>
       </c>
       <c r="B48" t="s">
         <v>90</v>
       </c>
-      <c r="C48" s="5">
-        <v>880604</v>
+      <c r="C48" s="7">
+        <v>8806.0400000000009</v>
       </c>
       <c r="D48">
         <v>705098</v>
@@ -1989,16 +2051,17 @@
       <c r="G48" s="3">
         <v>40.895940299999999</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I48" s="8"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>91</v>
       </c>
       <c r="B49" t="s">
         <v>92</v>
       </c>
-      <c r="C49" s="5">
-        <v>1294921</v>
+      <c r="C49" s="7">
+        <v>12949.210000000001</v>
       </c>
       <c r="D49">
         <v>715328</v>
@@ -2012,16 +2075,17 @@
       <c r="G49" s="3">
         <v>28.262428799999999</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I49" s="8"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>93</v>
       </c>
       <c r="B50" t="s">
         <v>94</v>
       </c>
-      <c r="C50" s="5">
-        <v>806716</v>
+      <c r="C50" s="7">
+        <v>8067.16</v>
       </c>
       <c r="D50">
         <v>453654</v>
@@ -2035,16 +2099,17 @@
       <c r="G50" s="3">
         <v>41.959043299999998</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I50" s="8"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>95</v>
       </c>
       <c r="B51" t="s">
         <v>96</v>
       </c>
-      <c r="C51" s="5">
-        <v>539164</v>
+      <c r="C51" s="7">
+        <v>5391.64</v>
       </c>
       <c r="D51">
         <v>309914</v>
@@ -2058,16 +2123,17 @@
       <c r="G51" s="3">
         <v>34.719416799999998</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I51" s="8"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>97</v>
       </c>
       <c r="B52" t="s">
         <v>98</v>
       </c>
-      <c r="C52" s="5">
-        <v>736529</v>
+      <c r="C52" s="7">
+        <v>7365.29</v>
       </c>
       <c r="D52">
         <v>348081</v>
@@ -2081,16 +2147,17 @@
       <c r="G52" s="3">
         <v>34.705143800000002</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I52" s="8"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>99</v>
       </c>
       <c r="B53" t="s">
         <v>100</v>
       </c>
-      <c r="C53" s="5">
-        <v>595249</v>
+      <c r="C53" s="7">
+        <v>5952.49</v>
       </c>
       <c r="D53">
         <v>887765</v>
@@ -2104,16 +2171,17 @@
       <c r="G53" s="3">
         <v>37.408276399999998</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I53" s="8"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>101</v>
       </c>
       <c r="B54" t="s">
         <v>102</v>
       </c>
-      <c r="C54" s="5">
-        <v>392198</v>
+      <c r="C54" s="7">
+        <v>3921.98</v>
       </c>
       <c r="D54">
         <v>365938</v>
@@ -2127,16 +2195,17 @@
       <c r="G54" s="3">
         <v>40.519914200000002</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I54" s="8"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>103</v>
       </c>
       <c r="B55" t="s">
         <v>104</v>
       </c>
-      <c r="C55" s="5">
-        <v>488019</v>
+      <c r="C55" s="7">
+        <v>4880.1900000000005</v>
       </c>
       <c r="D55">
         <v>756168</v>
@@ -2150,16 +2219,17 @@
       <c r="G55" s="3">
         <v>30.400376000000001</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I55" s="8"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>105</v>
       </c>
       <c r="B56" t="s">
         <v>106</v>
       </c>
-      <c r="C56" s="5">
-        <v>936410</v>
+      <c r="C56" s="7">
+        <v>9364.1</v>
       </c>
       <c r="D56">
         <v>1209137</v>
@@ -2173,16 +2243,17 @@
       <c r="G56" s="3">
         <v>36.332059600000001</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I56" s="8"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>107</v>
       </c>
       <c r="B57" t="s">
         <v>108</v>
       </c>
-      <c r="C57" s="5">
-        <v>547329</v>
+      <c r="C57" s="7">
+        <v>5473.29</v>
       </c>
       <c r="D57">
         <v>263676</v>
@@ -2196,16 +2267,17 @@
       <c r="G57" s="3">
         <v>42.051029399999997</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I57" s="8"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>109</v>
       </c>
       <c r="B58" t="s">
         <v>110</v>
       </c>
-      <c r="C58" s="5">
-        <v>581655</v>
+      <c r="C58" s="7">
+        <v>5816.55</v>
       </c>
       <c r="D58">
         <v>225574</v>
@@ -2219,16 +2291,17 @@
       <c r="G58" s="3">
         <v>34.868123099999998</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I58" s="8"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>111</v>
       </c>
       <c r="B59" t="s">
         <v>112</v>
       </c>
-      <c r="C59" s="5">
-        <v>2856734</v>
+      <c r="C59" s="7">
+        <v>28567.34</v>
       </c>
       <c r="D59">
         <v>755091</v>
@@ -2242,16 +2315,17 @@
       <c r="G59" s="3">
         <v>37.101238799999997</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I59" s="8"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>113</v>
       </c>
       <c r="B60" t="s">
         <v>114</v>
       </c>
-      <c r="C60" s="5">
-        <v>634230</v>
+      <c r="C60" s="7">
+        <v>6342.3</v>
       </c>
       <c r="D60">
         <v>623591</v>
@@ -2265,16 +2339,17 @@
       <c r="G60" s="3">
         <v>27.367629300000001</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I60" s="8"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>115</v>
       </c>
       <c r="B61" t="s">
         <v>116</v>
       </c>
-      <c r="C61" s="5">
-        <v>1007262</v>
+      <c r="C61" s="7">
+        <v>10072.620000000001</v>
       </c>
       <c r="D61">
         <v>828027</v>
@@ -2288,16 +2363,17 @@
       <c r="G61" s="3">
         <v>36.656378539897759</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I61" s="8"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>117</v>
       </c>
       <c r="B62" t="s">
         <v>118</v>
       </c>
-      <c r="C62" s="5">
-        <v>466404</v>
+      <c r="C62" s="7">
+        <v>4664.04</v>
       </c>
       <c r="D62">
         <v>975137</v>
@@ -2311,16 +2387,17 @@
       <c r="G62" s="3">
         <v>39.725754700000003</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I62" s="8"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>119</v>
       </c>
       <c r="B63" t="s">
         <v>120</v>
       </c>
-      <c r="C63" s="5">
-        <v>768566</v>
+      <c r="C63" s="7">
+        <v>7685.66</v>
       </c>
       <c r="D63">
         <v>93584</v>
@@ -2334,16 +2411,17 @@
       <c r="G63" s="3">
         <v>39.548269300000001</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I63" s="8"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>121</v>
       </c>
       <c r="B64" t="s">
         <v>122</v>
       </c>
-      <c r="C64" s="5">
-        <v>1933621</v>
+      <c r="C64" s="7">
+        <v>19336.21</v>
       </c>
       <c r="D64">
         <v>1443422</v>
@@ -2357,16 +2435,17 @@
       <c r="G64" s="3">
         <v>39.040817400000002</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I64" s="8"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>123</v>
       </c>
       <c r="B65" t="s">
         <v>124</v>
       </c>
-      <c r="C65" s="5">
-        <v>536309</v>
+      <c r="C65" s="7">
+        <v>5363.09</v>
       </c>
       <c r="D65">
         <v>322313</v>
@@ -2380,16 +2459,17 @@
       <c r="G65" s="3">
         <v>29.330650599999998</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I65" s="8"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>125</v>
       </c>
       <c r="B66" t="s">
         <v>126</v>
       </c>
-      <c r="C66" s="5">
-        <v>1941414</v>
+      <c r="C66" s="7">
+        <v>19414.14</v>
       </c>
       <c r="D66">
         <v>877524</v>
@@ -2403,16 +2483,17 @@
       <c r="G66" s="3">
         <v>43.6589825</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I66" s="8"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>127</v>
       </c>
       <c r="B67" t="s">
         <v>128</v>
       </c>
-      <c r="C67" s="5">
-        <v>1407409</v>
+      <c r="C67" s="7">
+        <v>14074.09</v>
       </c>
       <c r="D67">
         <v>682919</v>
@@ -2426,16 +2507,17 @@
       <c r="G67" s="3">
         <v>34.808097199999999</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I67" s="8"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>129</v>
       </c>
       <c r="B68" t="s">
         <v>130</v>
       </c>
-      <c r="C68" s="5">
-        <v>330986</v>
+      <c r="C68" s="7">
+        <v>3309.86</v>
       </c>
       <c r="D68">
         <v>615599</v>
@@ -2449,16 +2531,17 @@
       <c r="G68" s="3">
         <v>31.838973800000002</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I68" s="8"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
         <v>131</v>
       </c>
       <c r="B69" t="s">
         <v>132</v>
       </c>
-      <c r="C69" s="5">
-        <v>796551</v>
+      <c r="C69" s="7">
+        <v>7965.51</v>
       </c>
       <c r="D69">
         <v>396084</v>
@@ -2472,16 +2555,17 @@
       <c r="G69" s="3">
         <v>33.8976963</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I69" s="8"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
         <v>133</v>
       </c>
       <c r="B70" t="s">
         <v>134</v>
       </c>
-      <c r="C70" s="5">
-        <v>373908</v>
+      <c r="C70" s="7">
+        <v>3739.08</v>
       </c>
       <c r="D70">
         <v>97358</v>
@@ -2495,16 +2579,17 @@
       <c r="G70" s="3">
         <v>40.212159900000003</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I70" s="8"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
         <v>135</v>
       </c>
       <c r="B71" t="s">
         <v>136</v>
       </c>
-      <c r="C71" s="5">
-        <v>886890</v>
+      <c r="C71" s="7">
+        <v>8868.9</v>
       </c>
       <c r="D71">
         <v>243210</v>
@@ -2518,16 +2603,17 @@
       <c r="G71" s="3">
         <v>33.338366499999999</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I71" s="8"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
         <v>137</v>
       </c>
       <c r="B72" t="s">
         <v>138</v>
       </c>
-      <c r="C72" s="5">
-        <v>456976</v>
+      <c r="C72" s="7">
+        <v>4569.76</v>
       </c>
       <c r="D72">
         <v>383508</v>
@@ -2541,16 +2627,17 @@
       <c r="G72" s="3">
         <v>33.827899199999997</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I72" s="8"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
         <v>139</v>
       </c>
       <c r="B73" t="s">
         <v>140</v>
       </c>
-      <c r="C73" s="5">
-        <v>465921</v>
+      <c r="C73" s="7">
+        <v>4659.21</v>
       </c>
       <c r="D73">
         <v>456734</v>
@@ -2564,16 +2651,17 @@
       <c r="G73" s="3">
         <v>41.257392400000001</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I73" s="8"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
         <v>141</v>
       </c>
       <c r="B74" t="s">
         <v>142</v>
       </c>
-      <c r="C74" s="5">
-        <v>715157</v>
+      <c r="C74" s="7">
+        <v>7151.57</v>
       </c>
       <c r="D74">
         <v>353197</v>
@@ -2587,16 +2675,17 @@
       <c r="G74" s="3">
         <v>42.361878800162707</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I74" s="8"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
         <v>143</v>
       </c>
       <c r="B75" t="s">
         <v>144</v>
       </c>
-      <c r="C75" s="5">
-        <v>208036</v>
+      <c r="C75" s="7">
+        <v>2080.36</v>
       </c>
       <c r="D75">
         <v>184178</v>
@@ -2610,16 +2699,17 @@
       <c r="G75" s="3">
         <v>32.435425500000001</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I75" s="8"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
         <v>145</v>
       </c>
       <c r="B76" t="s">
         <v>146</v>
       </c>
-      <c r="C76" s="5">
-        <v>496763</v>
+      <c r="C76" s="7">
+        <v>4967.63</v>
       </c>
       <c r="D76">
         <v>133756</v>
@@ -2633,16 +2723,17 @@
       <c r="G76" s="3">
         <v>42.746218900000002</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I76" s="8"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
         <v>147</v>
       </c>
       <c r="B77" t="s">
         <v>148</v>
       </c>
-      <c r="C77" s="5">
-        <v>358781</v>
+      <c r="C77" s="7">
+        <v>3587.81</v>
       </c>
       <c r="D77">
         <v>168634</v>
@@ -2656,16 +2747,17 @@
       <c r="G77" s="3">
         <v>43.942745899999998</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I77" s="8"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
         <v>149</v>
       </c>
       <c r="B78" t="s">
         <v>150</v>
       </c>
-      <c r="C78" s="5">
-        <v>85046</v>
+      <c r="C78" s="7">
+        <v>850.46</v>
       </c>
       <c r="D78">
         <v>168593</v>
@@ -2679,16 +2771,17 @@
       <c r="G78" s="3">
         <v>29.077136065391841</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I78" s="8"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
         <v>151</v>
       </c>
       <c r="B79" t="s">
         <v>152</v>
       </c>
-      <c r="C79" s="5">
-        <v>410880</v>
+      <c r="C79" s="7">
+        <v>4108.8</v>
       </c>
       <c r="D79">
         <v>225102</v>
@@ -2702,16 +2795,17 @@
       <c r="G79" s="3">
         <v>32.623115400000003</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I79" s="8"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
         <v>153</v>
       </c>
       <c r="B80" t="s">
         <v>154</v>
       </c>
-      <c r="C80" s="5">
-        <v>142776</v>
+      <c r="C80" s="7">
+        <v>1427.76</v>
       </c>
       <c r="D80">
         <v>114724</v>
@@ -2725,16 +2819,17 @@
       <c r="G80" s="3">
         <v>37.141689200000002</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I80" s="8"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
         <v>155</v>
       </c>
       <c r="B81" t="s">
         <v>156</v>
       </c>
-      <c r="C81" s="5">
-        <v>319599</v>
+      <c r="C81" s="7">
+        <v>3195.9900000000002</v>
       </c>
       <c r="D81">
         <v>458782</v>
@@ -2748,16 +2843,17 @@
       <c r="G81" s="3">
         <v>36.2507673</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I81" s="8"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
         <v>157</v>
       </c>
       <c r="B82" t="s">
         <v>158</v>
       </c>
-      <c r="C82" s="5">
-        <v>259295</v>
+      <c r="C82" s="7">
+        <v>2592.9500000000003</v>
       </c>
       <c r="D82">
         <v>314266</v>
@@ -2771,6 +2867,7 @@
       <c r="G82" s="3">
         <v>31.200961800000002</v>
       </c>
+      <c r="I82" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
